--- a/src/digitalmodel/data/crosby/204_subsea_shackles_g2100.xlsx
+++ b/src/digitalmodel/data/crosby/204_subsea_shackles_g2100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ss7a2365\Documents\github\digitalmodel\src\digitalmodel\data\crosby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44E82C0-BFBE-4805-9CBC-80BC56D9A671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400AEF8D-0270-4F3E-BA11-BF822249C312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5A485A-87BB-4971-B786-30017D29655F}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>N_in</t>
   </si>
   <si>
-    <t>G-2100_stock</t>
-  </si>
-  <si>
     <t>w_lb</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>design_factor</t>
+  </si>
+  <si>
+    <t>part_number</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -475,16 +475,16 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
